--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,6 +3423,41 @@
         <v>10318600</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3465100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3458,6 +3458,41 @@
         <v>3465100</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4709700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3493,6 +3493,41 @@
         <v>4709700</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4920500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3528,6 +3528,41 @@
         <v>4920500</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2175700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3563,6 +3563,41 @@
         <v>2175700</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10506200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3598,6 +3598,41 @@
         <v>10506200</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3659200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3633,6 +3633,41 @@
         <v>3659200</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2210200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3668,6 +3668,41 @@
         <v>2210200</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I95" t="n">
+        <v>29240400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3703,6 +3703,41 @@
         <v>29240400</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6607200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,6 +3738,41 @@
         <v>6607200</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19046200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3773,6 +3773,41 @@
         <v>19046200</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7406300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3808,6 +3808,41 @@
         <v>7406300</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11738400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,6 +3843,76 @@
         <v>11738400</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10414000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10664700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3913,6 +3913,76 @@
         <v>10664700</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5664500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4845000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3983,6 +3983,41 @@
         <v>4845000</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4963900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4018,6 +4018,41 @@
         <v>4963900</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3902900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,6 +4053,41 @@
         <v>3902900</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4045000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4088,6 +4088,41 @@
         <v>4045000</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I107" t="n">
+        <v>12909300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4123,6 +4123,76 @@
         <v>12909300</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7705500</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I109" t="n">
+        <v>8209600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4193,6 +4193,41 @@
         <v>8209600</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4450200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4228,6 +4228,41 @@
         <v>4450200</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10708900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,11 +1710,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1728,28 +1728,28 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="F39" t="n">
-        <v>0.51</v>
+        <v>0.605</v>
       </c>
       <c r="G39" t="n">
-        <v>0.495</v>
+        <v>0.58</v>
       </c>
       <c r="H39" t="n">
-        <v>0.505</v>
+        <v>0.59</v>
       </c>
       <c r="I39" t="n">
-        <v>8539700</v>
+        <v>21923800</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1763,28 +1763,28 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.505</v>
+        <v>0.585</v>
       </c>
       <c r="F40" t="n">
-        <v>0.555</v>
+        <v>0.59</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="I40" t="n">
-        <v>26051100</v>
+        <v>23531000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1798,28 +1798,28 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.54</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G41" t="n">
-        <v>0.54</v>
+        <v>0.555</v>
       </c>
       <c r="H41" t="n">
-        <v>0.55</v>
+        <v>0.585</v>
       </c>
       <c r="I41" t="n">
-        <v>14567400</v>
+        <v>51259400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1833,28 +1833,28 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.555</v>
+        <v>0.585</v>
       </c>
       <c r="F42" t="n">
-        <v>0.585</v>
+        <v>0.59</v>
       </c>
       <c r="G42" t="n">
-        <v>0.545</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0.575</v>
+        <v>0.57</v>
       </c>
       <c r="I42" t="n">
-        <v>39292000</v>
+        <v>16442100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F43" t="n">
         <v>0.585</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="I43" t="n">
-        <v>18102900</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1903,28 +1903,28 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="F44" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="G44" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I44" t="n">
-        <v>6693700</v>
+        <v>19477400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1938,28 +1938,28 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="F45" t="n">
-        <v>0.585</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.525</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.525</v>
       </c>
       <c r="I45" t="n">
-        <v>18491200</v>
+        <v>14542200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1973,28 +1973,28 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.525</v>
       </c>
       <c r="F46" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="G46" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="H46" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="I46" t="n">
-        <v>11402900</v>
+        <v>8898800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,28 +2008,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="F47" t="n">
-        <v>0.555</v>
+        <v>0.53</v>
       </c>
       <c r="G47" t="n">
-        <v>0.535</v>
+        <v>0.505</v>
       </c>
       <c r="H47" t="n">
-        <v>0.545</v>
+        <v>0.515</v>
       </c>
       <c r="I47" t="n">
-        <v>5902400</v>
+        <v>12177600</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2043,28 +2043,28 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.545</v>
+        <v>0.51</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="G48" t="n">
-        <v>0.54</v>
+        <v>0.495</v>
       </c>
       <c r="H48" t="n">
-        <v>0.545</v>
+        <v>0.505</v>
       </c>
       <c r="I48" t="n">
-        <v>5459100</v>
+        <v>8539700</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="E49" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.55</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.535</v>
-      </c>
       <c r="I49" t="n">
-        <v>4387700</v>
+        <v>26051100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2113,28 +2113,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="F50" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.55</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.545</v>
-      </c>
       <c r="I50" t="n">
-        <v>10553900</v>
+        <v>14567400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2148,28 +2148,28 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.55</v>
+        <v>0.555</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="G51" t="n">
-        <v>0.54</v>
+        <v>0.545</v>
       </c>
       <c r="H51" t="n">
-        <v>0.545</v>
+        <v>0.575</v>
       </c>
       <c r="I51" t="n">
-        <v>9027900</v>
+        <v>39292000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2183,28 +2183,28 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="F52" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.54</v>
-      </c>
       <c r="H52" t="n">
-        <v>0.545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>5530800</v>
+        <v>18102900</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2218,28 +2218,28 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.545</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.545</v>
+        <v>0.57</v>
       </c>
       <c r="G53" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="H53" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>3041700</v>
+        <v>6693700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2253,28 +2253,28 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.53</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>0.54</v>
+        <v>0.585</v>
       </c>
       <c r="G54" t="n">
-        <v>0.525</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>5195000</v>
+        <v>18491200</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2288,28 +2288,28 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.53</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F55" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.54</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.525</v>
-      </c>
       <c r="H55" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="I55" t="n">
-        <v>4432900</v>
+        <v>11402900</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2323,28 +2323,28 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="F56" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.545</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.535</v>
-      </c>
       <c r="I56" t="n">
-        <v>4982500</v>
+        <v>5902400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2358,28 +2358,28 @@
         </is>
       </c>
       <c r="E57" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.54</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.53</v>
       </c>
       <c r="H57" t="n">
         <v>0.545</v>
       </c>
       <c r="I57" t="n">
-        <v>9389400</v>
+        <v>5459100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2393,28 +2393,28 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.545</v>
+        <v>0.55</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="G58" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="H58" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="I58" t="n">
-        <v>18039200</v>
+        <v>4387700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2428,28 +2428,28 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.55</v>
+        <v>0.535</v>
       </c>
       <c r="F59" t="n">
         <v>0.55</v>
       </c>
       <c r="G59" t="n">
-        <v>0.535</v>
+        <v>0.52</v>
       </c>
       <c r="H59" t="n">
-        <v>0.535</v>
+        <v>0.545</v>
       </c>
       <c r="I59" t="n">
-        <v>6488300</v>
+        <v>10553900</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2463,28 +2463,28 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.535</v>
+        <v>0.55</v>
       </c>
       <c r="F60" t="n">
-        <v>0.535</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="H60" t="n">
-        <v>0.53</v>
+        <v>0.545</v>
       </c>
       <c r="I60" t="n">
-        <v>4894700</v>
+        <v>9027900</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2498,28 +2498,28 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.535</v>
+        <v>0.55</v>
       </c>
       <c r="F61" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.545</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.54</v>
-      </c>
       <c r="I61" t="n">
-        <v>18952600</v>
+        <v>5530800</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2533,28 +2533,28 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.54</v>
+        <v>0.545</v>
       </c>
       <c r="F62" t="n">
         <v>0.545</v>
       </c>
       <c r="G62" t="n">
-        <v>0.525</v>
+        <v>0.53</v>
       </c>
       <c r="H62" t="n">
         <v>0.53</v>
       </c>
       <c r="I62" t="n">
-        <v>10903600</v>
+        <v>3041700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2568,28 +2568,28 @@
         </is>
       </c>
       <c r="E63" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.525</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>0.53</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.52</v>
-      </c>
       <c r="I63" t="n">
-        <v>7803200</v>
+        <v>5195000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2603,28 +2603,28 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F64" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="G64" t="n">
-        <v>0.515</v>
+        <v>0.525</v>
       </c>
       <c r="H64" t="n">
-        <v>0.515</v>
+        <v>0.525</v>
       </c>
       <c r="I64" t="n">
-        <v>4944100</v>
+        <v>4432900</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2638,28 +2638,28 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.51</v>
+        <v>0.525</v>
       </c>
       <c r="F65" t="n">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="G65" t="n">
-        <v>0.495</v>
+        <v>0.525</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5</v>
+        <v>0.535</v>
       </c>
       <c r="I65" t="n">
-        <v>11111900</v>
+        <v>4982500</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2673,28 +2673,28 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="F66" t="n">
-        <v>0.54</v>
+        <v>0.545</v>
       </c>
       <c r="G66" t="n">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="H66" t="n">
-        <v>0.535</v>
+        <v>0.545</v>
       </c>
       <c r="I66" t="n">
-        <v>14867200</v>
+        <v>9389400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.535</v>
+        <v>0.545</v>
       </c>
       <c r="F67" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.54</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.515</v>
-      </c>
       <c r="H67" t="n">
-        <v>0.53</v>
+        <v>0.545</v>
       </c>
       <c r="I67" t="n">
-        <v>8175400</v>
+        <v>18039200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2743,28 +2743,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="F68" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="G68" t="n">
-        <v>0.52</v>
+        <v>0.535</v>
       </c>
       <c r="H68" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="I68" t="n">
-        <v>1919900</v>
+        <v>6488300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2778,28 +2778,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="F69" t="n">
         <v>0.535</v>
       </c>
       <c r="G69" t="n">
-        <v>0.515</v>
+        <v>0.525</v>
       </c>
       <c r="H69" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I69" t="n">
-        <v>5599900</v>
+        <v>4894700</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2813,28 +2813,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.52</v>
+        <v>0.535</v>
       </c>
       <c r="F70" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.53</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.51</v>
-      </c>
       <c r="H70" t="n">
-        <v>0.515</v>
+        <v>0.54</v>
       </c>
       <c r="I70" t="n">
-        <v>5623000</v>
+        <v>18952600</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2848,28 +2848,28 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.515</v>
+        <v>0.54</v>
       </c>
       <c r="F71" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.525</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.51</v>
-      </c>
       <c r="H71" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="I71" t="n">
-        <v>9903600</v>
+        <v>10903600</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2883,28 +2883,28 @@
         </is>
       </c>
       <c r="E72" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.52</v>
       </c>
-      <c r="F72" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.505</v>
-      </c>
       <c r="H72" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="I72" t="n">
-        <v>4865400</v>
+        <v>7803200</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2918,28 +2918,28 @@
         </is>
       </c>
       <c r="E73" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.515</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.51</v>
       </c>
       <c r="H73" t="n">
         <v>0.515</v>
       </c>
       <c r="I73" t="n">
-        <v>7461600</v>
+        <v>4944100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2956,25 +2956,25 @@
         <v>0.51</v>
       </c>
       <c r="F74" t="n">
-        <v>0.515</v>
+        <v>0.51</v>
       </c>
       <c r="G74" t="n">
-        <v>0.505</v>
+        <v>0.495</v>
       </c>
       <c r="H74" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I74" t="n">
-        <v>3968600</v>
+        <v>11111900</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2988,28 +2988,28 @@
         </is>
       </c>
       <c r="E75" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.505</v>
       </c>
-      <c r="F75" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H75" t="n">
-        <v>0.505</v>
+        <v>0.535</v>
       </c>
       <c r="I75" t="n">
-        <v>3569200</v>
+        <v>14867200</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3023,28 +3023,28 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.505</v>
+        <v>0.535</v>
       </c>
       <c r="F76" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.515</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="I76" t="n">
-        <v>2596200</v>
+        <v>8175400</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3058,28 +3058,28 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="F77" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="G77" t="n">
-        <v>0.495</v>
+        <v>0.52</v>
       </c>
       <c r="H77" t="n">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="I77" t="n">
-        <v>4969400</v>
+        <v>1919900</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3093,28 +3093,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.495</v>
+        <v>0.525</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.535</v>
       </c>
       <c r="G78" t="n">
-        <v>0.49</v>
+        <v>0.515</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="I78" t="n">
-        <v>53970400</v>
+        <v>5599900</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3128,28 +3128,28 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="F79" t="n">
-        <v>0.575</v>
+        <v>0.53</v>
       </c>
       <c r="G79" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="H79" t="n">
-        <v>0.535</v>
+        <v>0.515</v>
       </c>
       <c r="I79" t="n">
-        <v>20376900</v>
+        <v>5623000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3163,28 +3163,28 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="F80" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="G80" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H80" t="n">
-        <v>0.52</v>
+        <v>0.515</v>
       </c>
       <c r="I80" t="n">
-        <v>13295100</v>
+        <v>9903600</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3198,28 +3198,28 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F81" t="n">
-        <v>0.53</v>
+        <v>0.525</v>
       </c>
       <c r="G81" t="n">
-        <v>0.495</v>
+        <v>0.505</v>
       </c>
       <c r="H81" t="n">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="I81" t="n">
-        <v>15030700</v>
+        <v>4865400</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3233,28 +3233,28 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="F82" t="n">
-        <v>0.495</v>
+        <v>0.525</v>
       </c>
       <c r="G82" t="n">
-        <v>0.475</v>
+        <v>0.51</v>
       </c>
       <c r="H82" t="n">
-        <v>0.49</v>
+        <v>0.515</v>
       </c>
       <c r="I82" t="n">
-        <v>8698300</v>
+        <v>7461600</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3268,28 +3268,28 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.495</v>
+        <v>0.51</v>
       </c>
       <c r="F83" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.51</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.505</v>
-      </c>
       <c r="I83" t="n">
-        <v>5632100</v>
+        <v>3968600</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3303,28 +3303,28 @@
         </is>
       </c>
       <c r="E84" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.51</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.52</v>
       </c>
       <c r="G84" t="n">
         <v>0.5</v>
       </c>
       <c r="H84" t="n">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
       <c r="I84" t="n">
-        <v>8325600</v>
+        <v>3569200</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3338,28 +3338,28 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.515</v>
+        <v>0.505</v>
       </c>
       <c r="F85" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="G85" t="n">
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
-        <v>0.515</v>
+        <v>0.5</v>
       </c>
       <c r="I85" t="n">
-        <v>4143100</v>
+        <v>2596200</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3373,28 +3373,28 @@
         </is>
       </c>
       <c r="E86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F86" t="n">
         <v>0.515</v>
       </c>
-      <c r="F86" t="n">
-        <v>0.52</v>
-      </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="H86" t="n">
         <v>0.505</v>
       </c>
       <c r="I86" t="n">
-        <v>6518600</v>
+        <v>4969400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3408,28 +3408,28 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="F87" t="n">
-        <v>0.51</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G87" t="n">
         <v>0.49</v>
       </c>
       <c r="H87" t="n">
-        <v>0.495</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>10318600</v>
+        <v>53970400</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3443,28 +3443,28 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F88" t="n">
-        <v>0.505</v>
+        <v>0.575</v>
       </c>
       <c r="G88" t="n">
-        <v>0.495</v>
+        <v>0.53</v>
       </c>
       <c r="H88" t="n">
-        <v>0.495</v>
+        <v>0.535</v>
       </c>
       <c r="I88" t="n">
-        <v>3465100</v>
+        <v>20376900</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3478,28 +3478,28 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.495</v>
+        <v>0.54</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="G89" t="n">
-        <v>0.495</v>
+        <v>0.52</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>4709700</v>
+        <v>13295100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3513,28 +3513,28 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="F90" t="n">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="G90" t="n">
         <v>0.495</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="I90" t="n">
-        <v>4920500</v>
+        <v>15030700</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3551,25 +3551,25 @@
         <v>0.495</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="G91" t="n">
-        <v>0.495</v>
+        <v>0.475</v>
       </c>
       <c r="H91" t="n">
-        <v>0.495</v>
+        <v>0.49</v>
       </c>
       <c r="I91" t="n">
-        <v>2175700</v>
+        <v>8698300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="F92" t="n">
-        <v>0.515</v>
+        <v>0.51</v>
       </c>
       <c r="G92" t="n">
         <v>0.495</v>
@@ -3595,16 +3595,16 @@
         <v>0.505</v>
       </c>
       <c r="I92" t="n">
-        <v>10506200</v>
+        <v>5632100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3618,28 +3618,28 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.505</v>
+        <v>0.51</v>
       </c>
       <c r="F93" t="n">
-        <v>0.505</v>
+        <v>0.52</v>
       </c>
       <c r="G93" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I93" t="n">
-        <v>3659200</v>
+        <v>8325600</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3653,28 +3653,28 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="G94" t="n">
-        <v>0.49</v>
+        <v>0.505</v>
       </c>
       <c r="H94" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="I94" t="n">
-        <v>2210200</v>
+        <v>4143100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3688,28 +3688,28 @@
         </is>
       </c>
       <c r="E95" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.49</v>
       </c>
       <c r="H95" t="n">
         <v>0.505</v>
       </c>
       <c r="I95" t="n">
-        <v>29240400</v>
+        <v>6518600</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3729,22 +3729,22 @@
         <v>0.51</v>
       </c>
       <c r="G96" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.495</v>
       </c>
-      <c r="H96" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I96" t="n">
-        <v>6607200</v>
+        <v>10318600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3758,28 +3758,28 @@
         </is>
       </c>
       <c r="E97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.495</v>
       </c>
-      <c r="F97" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.49</v>
-      </c>
       <c r="H97" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="I97" t="n">
-        <v>19046200</v>
+        <v>3465100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3796,25 +3796,25 @@
         <v>0.495</v>
       </c>
       <c r="F98" t="n">
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="n">
-        <v>0.49</v>
+        <v>0.495</v>
       </c>
       <c r="H98" t="n">
         <v>0.5</v>
       </c>
       <c r="I98" t="n">
-        <v>7406300</v>
+        <v>4709700</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="F99" t="n">
-        <v>0.515</v>
+        <v>0.505</v>
       </c>
       <c r="G99" t="n">
         <v>0.495</v>
@@ -3840,16 +3840,16 @@
         <v>0.5</v>
       </c>
       <c r="I99" t="n">
-        <v>11738400</v>
+        <v>4920500</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3863,28 +3863,28 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.505</v>
+        <v>0.495</v>
       </c>
       <c r="F100" t="n">
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
       <c r="G100" t="n">
-        <v>0.485</v>
+        <v>0.495</v>
       </c>
       <c r="H100" t="n">
-        <v>0.485</v>
+        <v>0.495</v>
       </c>
       <c r="I100" t="n">
-        <v>10414000</v>
+        <v>2175700</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3898,28 +3898,28 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F101" t="n">
-        <v>0.475</v>
+        <v>0.515</v>
       </c>
       <c r="G101" t="n">
-        <v>0.44</v>
+        <v>0.495</v>
       </c>
       <c r="H101" t="n">
-        <v>0.45</v>
+        <v>0.505</v>
       </c>
       <c r="I101" t="n">
-        <v>10664700</v>
+        <v>10506200</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3933,28 +3933,28 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.45</v>
+        <v>0.505</v>
       </c>
       <c r="F102" t="n">
-        <v>0.46</v>
+        <v>0.505</v>
       </c>
       <c r="G102" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="H102" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="I102" t="n">
-        <v>5664500</v>
+        <v>3659200</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3968,28 +3968,28 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="F103" t="n">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="H103" t="n">
-        <v>0.455</v>
+        <v>0.495</v>
       </c>
       <c r="I103" t="n">
-        <v>4845000</v>
+        <v>2210200</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4003,28 +4003,28 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F104" t="n">
-        <v>0.465</v>
+        <v>0.53</v>
       </c>
       <c r="G104" t="n">
-        <v>0.445</v>
+        <v>0.49</v>
       </c>
       <c r="H104" t="n">
-        <v>0.455</v>
+        <v>0.505</v>
       </c>
       <c r="I104" t="n">
-        <v>4963900</v>
+        <v>29240400</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4038,28 +4038,28 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="F105" t="n">
-        <v>0.465</v>
+        <v>0.51</v>
       </c>
       <c r="G105" t="n">
-        <v>0.445</v>
+        <v>0.495</v>
       </c>
       <c r="H105" t="n">
-        <v>0.445</v>
+        <v>0.5</v>
       </c>
       <c r="I105" t="n">
-        <v>3902900</v>
+        <v>6607200</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4073,28 +4073,28 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.44</v>
+        <v>0.495</v>
       </c>
       <c r="F106" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="G106" t="n">
-        <v>0.435</v>
+        <v>0.49</v>
       </c>
       <c r="H106" t="n">
-        <v>0.435</v>
+        <v>0.5</v>
       </c>
       <c r="I106" t="n">
-        <v>4045000</v>
+        <v>19046200</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4108,28 +4108,28 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.425</v>
+        <v>0.495</v>
       </c>
       <c r="F107" t="n">
-        <v>0.425</v>
+        <v>0.505</v>
       </c>
       <c r="G107" t="n">
-        <v>0.355</v>
+        <v>0.49</v>
       </c>
       <c r="H107" t="n">
-        <v>0.355</v>
+        <v>0.5</v>
       </c>
       <c r="I107" t="n">
-        <v>12909300</v>
+        <v>7406300</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4143,28 +4143,28 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.34</v>
+        <v>0.495</v>
       </c>
       <c r="F108" t="n">
-        <v>0.38</v>
+        <v>0.515</v>
       </c>
       <c r="G108" t="n">
-        <v>0.34</v>
+        <v>0.495</v>
       </c>
       <c r="H108" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="I108" t="n">
-        <v>7705500</v>
+        <v>11738400</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4178,28 +4178,28 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.375</v>
+        <v>0.505</v>
       </c>
       <c r="F109" t="n">
-        <v>0.385</v>
+        <v>0.505</v>
       </c>
       <c r="G109" t="n">
-        <v>0.355</v>
+        <v>0.485</v>
       </c>
       <c r="H109" t="n">
-        <v>0.355</v>
+        <v>0.485</v>
       </c>
       <c r="I109" t="n">
-        <v>8209600</v>
+        <v>10414000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4213,53 +4213,368 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.355</v>
+        <v>0.47</v>
       </c>
       <c r="F110" t="n">
-        <v>0.355</v>
+        <v>0.475</v>
       </c>
       <c r="G110" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="H110" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="I110" t="n">
-        <v>4450200</v>
+        <v>10664700</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5664500</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4845000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4963900</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3902900</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4045000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I116" t="n">
+        <v>12909300</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7705500</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8209600</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4450200</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>0213</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>MTAG</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
         <v>0.3</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F120" t="n">
         <v>0.31</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G120" t="n">
         <v>0.275</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H120" t="n">
         <v>0.295</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I120" t="n">
         <v>10708900</v>
       </c>
     </row>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4578,6 +4578,41 @@
         <v>10708900</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I121" t="n">
+        <v>7639200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4613,6 +4613,41 @@
         <v>7639200</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6155700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4648,6 +4648,41 @@
         <v>6155700</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4592900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4683,6 +4683,41 @@
         <v>4592900</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7769900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4718,6 +4718,41 @@
         <v>7769900</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7351300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4753,6 +4753,41 @@
         <v>7351300</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3851900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4788,6 +4788,41 @@
         <v>3851900</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I127" t="n">
+        <v>4524400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,6 +4823,41 @@
         <v>4524400</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I128" t="n">
+        <v>17056700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4858,6 +4858,41 @@
         <v>17056700</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I129" t="n">
+        <v>13331900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4893,6 +4893,41 @@
         <v>13331900</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8712500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,6 +4928,41 @@
         <v>8712500</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I131" t="n">
+        <v>7465800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,6 +4963,41 @@
         <v>7465800</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9771800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4998,6 +4998,41 @@
         <v>9771800</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I133" t="n">
+        <v>18462300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5033,6 +5033,41 @@
         <v>18462300</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I134" t="n">
+        <v>6320200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5068,6 +5068,41 @@
         <v>6320200</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3035300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5103,6 +5103,41 @@
         <v>3035300</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I136" t="n">
+        <v>19874400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5138,6 +5138,41 @@
         <v>19874400</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I137" t="n">
+        <v>17910700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,6 +5173,41 @@
         <v>17910700</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12232200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5208,6 +5208,41 @@
         <v>12232200</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3419300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5243,6 +5243,41 @@
         <v>3419300</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4405300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5278,6 +5278,41 @@
         <v>4405300</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5264900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5313,6 +5313,41 @@
         <v>5264900</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I142" t="n">
+        <v>6569000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5348,6 +5348,41 @@
         <v>6569000</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I143" t="n">
+        <v>23070800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5383,6 +5383,41 @@
         <v>23070800</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I144" t="n">
+        <v>19229600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5418,6 +5418,41 @@
         <v>19229600</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I145" t="n">
+        <v>20357500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5453,6 +5453,76 @@
         <v>20357500</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I146" t="n">
+        <v>14369400</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I147" t="n">
+        <v>8680200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,6 +5523,41 @@
         <v>8680200</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I148" t="n">
+        <v>12899400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,6 +5558,111 @@
         <v>12899400</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I149" t="n">
+        <v>8533700</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5031000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I151" t="n">
+        <v>59855600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5663,6 +5663,41 @@
         <v>59855600</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I152" t="n">
+        <v>37848000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,6 +5698,41 @@
         <v>37848000</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I153" t="n">
+        <v>18319400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0213.xlsx
+++ b/data/0213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5733,6 +5733,111 @@
         <v>18319400</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I154" t="n">
+        <v>11652800</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I155" t="n">
+        <v>10108000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I156" t="n">
+        <v>9084500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
